--- a/src/ThongKeNhaHangERROR.xlsx
+++ b/src/ThongKeNhaHangERROR.xlsx
@@ -71,13 +71,13 @@
     <t>Tháng 12</t>
   </si>
   <si>
+    <t>220000</t>
+  </si>
+  <si>
     <t>HÔM NAY</t>
   </si>
   <si>
     <t>TUẦN</t>
-  </si>
-  <si>
-    <t>1172</t>
   </si>
   <si>
     <t>THÁNG</t>
@@ -224,16 +224,16 @@
     </row>
     <row r="4">
       <c r="C4" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n" s="2">
         <v>0.0</v>
@@ -241,19 +241,19 @@
     </row>
     <row r="5">
       <c r="C5" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -261,16 +261,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -278,16 +278,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -385,7 +385,7 @@
         <v>18</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/ThongKeNhaHangERROR.xlsx
+++ b/src/ThongKeNhaHangERROR.xlsx
@@ -71,7 +71,7 @@
     <t>Tháng 12</t>
   </si>
   <si>
-    <t>220000</t>
+    <t>8536362</t>
   </si>
   <si>
     <t>HÔM NAY</t>
@@ -230,10 +230,10 @@
         <v>19</v>
       </c>
       <c r="E4" t="n" s="2">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" t="n" s="2">
         <v>0.0</v>
@@ -247,10 +247,10 @@
         <v>19</v>
       </c>
       <c r="E5" t="n" s="2">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n" s="2">
         <v>0.0</v>
@@ -264,10 +264,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="n" s="2">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" t="n" s="2">
         <v>0.0</v>
@@ -281,10 +281,10 @@
         <v>19</v>
       </c>
       <c r="E7" t="n" s="2">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>0.0</v>

--- a/src/ThongKeNhaHangERROR.xlsx
+++ b/src/ThongKeNhaHangERROR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Tháng</t>
   </si>
@@ -35,49 +35,82 @@
     <t>Tháng 1</t>
   </si>
   <si>
-    <t>0</t>
+    <t>63350</t>
   </si>
   <si>
     <t>Tháng 7</t>
   </si>
   <si>
+    <t>1909</t>
+  </si>
+  <si>
     <t>Tháng 2</t>
   </si>
   <si>
+    <t>19909</t>
+  </si>
+  <si>
     <t>Tháng 8</t>
   </si>
   <si>
+    <t>4071</t>
+  </si>
+  <si>
     <t>Tháng 3</t>
   </si>
   <si>
+    <t>695421</t>
+  </si>
+  <si>
     <t>Tháng 9</t>
   </si>
   <si>
+    <t>21960</t>
+  </si>
+  <si>
     <t>Tháng 4</t>
   </si>
   <si>
+    <t>14960</t>
+  </si>
+  <si>
     <t>Tháng 10</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Tháng 5</t>
   </si>
   <si>
+    <t>12818</t>
+  </si>
+  <si>
     <t>Tháng 11</t>
   </si>
   <si>
     <t>Tháng 6</t>
   </si>
   <si>
+    <t>10932</t>
+  </si>
+  <si>
     <t>Tháng 12</t>
   </si>
   <si>
-    <t>8536362</t>
+    <t>2796409</t>
   </si>
   <si>
     <t>HÔM NAY</t>
   </si>
   <si>
+    <t>3643651</t>
+  </si>
+  <si>
     <t>TUẦN</t>
+  </si>
+  <si>
+    <t>2915480</t>
   </si>
   <si>
     <t>THÁNG</t>
@@ -224,16 +257,16 @@
     </row>
     <row r="4">
       <c r="C4" t="s" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n" s="2">
-        <v>13.0</v>
+        <v>67.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>2.0</v>
+        <v>31.0</v>
       </c>
       <c r="G4" t="n" s="2">
         <v>0.0</v>
@@ -241,16 +274,16 @@
     </row>
     <row r="5">
       <c r="C5" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n" s="2">
-        <v>13.0</v>
+        <v>47.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="G5" t="n" s="2">
         <v>0.0</v>
@@ -258,16 +291,16 @@
     </row>
     <row r="6">
       <c r="C6" t="s" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n" s="2">
         <v>13.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="n" s="2">
         <v>0.0</v>
@@ -275,16 +308,16 @@
     </row>
     <row r="7">
       <c r="C7" t="s" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n" s="2">
-        <v>13.0</v>
+        <v>67.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>2.0</v>
+        <v>31.0</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>0.0</v>
@@ -315,77 +348,77 @@
         <v>8</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="s" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
